--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461713.8658881938</v>
+        <v>459275.3927884471</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.6554894253575</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>293.0919479711888</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>82.37133310306317</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>303.827756165602</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.23490948285925</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,7 +874,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>234.6991649574975</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -911,7 +911,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>4.014908381398782</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>26.36535177770065</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1269998040534</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>157.08559638979</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>90.5051912188231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>45.42122463714202</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.9416910403795</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>214.0003484772234</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>93.40444476188361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>38.05096575280631</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182093</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>94.91529601901792</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>75.2135622723823</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>39.39795577638999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>82.30974811734292</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.3687739767479</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>54.31367585848692</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>275.3300239197225</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605719742</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>106.8299898147634</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>129.1078928223844</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>183.1813225058497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>61.16269384155272</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766883</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>68.07731664460587</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>108.9065924712593</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.504630229388</v>
+        <v>1488.769491189825</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.542113288977</v>
+        <v>1119.806974249413</v>
       </c>
       <c r="D2" t="n">
-        <v>1242.542113288977</v>
+        <v>1119.806974249413</v>
       </c>
       <c r="E2" t="n">
-        <v>856.7538606907324</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>445.7679559011248</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>149.7154832029543</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,22 +4331,22 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4358,22 +4358,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269322</v>
+        <v>1875.369331253946</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.10447029351</v>
+        <v>1875.369331253946</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>897.8388607745846</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251686</v>
+        <v>608.421690737624</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271513</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.601998493311</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.639481552899</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>878.3737829461486</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>492.5855303479044</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>81.59962555829679</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>70.56757944369734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3298.974153146847</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2714.380789077113</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2361.612133806998</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>1988.146375545919</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.3078929297411</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C7" t="n">
-        <v>645.3078929297411</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>645.3078929297411</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>497.394799347348</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>350.5048518494376</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>182.8020152241566</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4753,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204827</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>867.045090624953</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,16 +4884,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.3338566427974</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597628</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="14">
@@ -5258,49 +5258,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>119.2902967703778</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703778</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488568</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606608</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>733.7765431483282</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>585.8634495659351</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>438.9735020680247</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>271.7774027829046</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397315</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360355</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462337</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318807</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,49 +5516,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5707,16 +5707,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,10 +6066,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L24" t="n">
         <v>119.290296770379</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.8461362382112</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>472.9099533103043</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>322.7933138979686</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2325.055080985707</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="T28" t="n">
-        <v>2105.453616008648</v>
+        <v>2160.3159148556</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.378389352846</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.693901146959</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.276731109998</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1044.287180211981</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>823.4946010684509</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,19 +6473,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400749</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.917417812168</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.917417812168</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.917417812168</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.917417812168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270479</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487571</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510512</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.38585385471</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648823</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611862</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138447</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703146</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6789,7 +6789,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y34" t="n">
-        <v>731.2630058190439</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2318.136881002812</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138438</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703137</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2311.15241352498</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>212.2364312842573</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>65.90334451286704</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.190246567156956e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.21102825632875</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>180.5336875992885</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>45.37941682720594</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>212.739687547438</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.30572490086944</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465707</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0.9259388694759423</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>126.7126101431558</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>10.85445046952168</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405041</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.7546635373314</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582798</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.40333084624513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>119.8635921600919</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392193953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>112.9489693570387</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.70888054695304</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>962136.6758272679</v>
+        <v>962136.6758272687</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1039480.962009967</v>
+        <v>1039480.962009968</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631194</v>
+        <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855346</v>
@@ -26320,25 +26320,25 @@
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="F2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.6348527531</v>
-      </c>
-      <c r="F2" t="n">
-        <v>383394.6348527531</v>
-      </c>
-      <c r="G2" t="n">
-        <v>383394.6348527531</v>
-      </c>
-      <c r="H2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="L2" t="n">
         <v>383394.634852753</v>
@@ -26353,7 +26353,7 @@
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.1833104793</v>
+        <v>47799.18331047974</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26451,7 +26451,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1129897.772736346</v>
+        <v>-1130084.166124885</v>
       </c>
       <c r="C6" t="n">
-        <v>191706.8331009963</v>
+        <v>191706.8331009965</v>
       </c>
       <c r="D6" t="n">
         <v>191706.8331009964</v>
       </c>
       <c r="E6" t="n">
-        <v>-54307.38903030322</v>
+        <v>-54342.12695573841</v>
       </c>
       <c r="F6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="G6" t="n">
-        <v>271105.0727770526</v>
+        <v>271070.3348516165</v>
       </c>
       <c r="H6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516167</v>
       </c>
       <c r="I6" t="n">
-        <v>271105.0727770525</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="J6" t="n">
-        <v>53573.87037977457</v>
+        <v>53539.13245433923</v>
       </c>
       <c r="K6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516167</v>
       </c>
       <c r="L6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="M6" t="n">
-        <v>186050.0448415402</v>
+        <v>186015.3069161046</v>
       </c>
       <c r="N6" t="n">
-        <v>271105.0727770523</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="O6" t="n">
-        <v>271105.0727770523</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="P6" t="n">
-        <v>271105.0727770521</v>
+        <v>271070.3348516165</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>86.27488064690425</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>117.8297776822646</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>113.790898776169</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>17.43847836633051</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>290.5928560059217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>177.5526183619195</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.62801511026736</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>61.49905696230476</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7677005521845</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>361.4548211045694</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.89028914155779</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>38.13729484660459</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551095</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>150.7833302198372</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075054</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.94570355317046</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096304</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409638</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191337</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
